--- a/Zeiterfassung Team 9.xlsx
+++ b/Zeiterfassung Team 9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studi\Documents\Uni\SWE\film\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2C70AE-F6FE-427D-8574-E5A73A90ED04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495CF994-E42C-4E70-942A-D3A5CCCE1E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Nachname</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Jenkins aufsetzen</t>
+  </si>
+  <si>
+    <t>Jenkins fixen, Sicherheitslücken schließen</t>
   </si>
 </sst>
 </file>
@@ -332,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -363,9 +366,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="11">
         <f>SUM(C3:C61)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5"/>
@@ -944,7 +944,7 @@
       <c r="B13" s="16">
         <v>45410</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="7">
         <v>1.5</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1006,11 +1006,21 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="7">
+        <v>18</v>
+      </c>
+      <c r="B17" s="16">
+        <v>45413</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>

--- a/Zeiterfassung Team 9.xlsx
+++ b/Zeiterfassung Team 9.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studi\Documents\Uni\SWE\film\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiskuehn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495CF994-E42C-4E70-942A-D3A5CCCE1E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765BD520-36B7-DF41-A96E-6D1D9B4D9948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="5" r:id="rId1"/>
     <sheet name="Moritz Geiger" sheetId="2" r:id="rId2"/>
-    <sheet name="Vorname2 Nachname2" sheetId="3" r:id="rId3"/>
+    <sheet name="Luis Kühn" sheetId="3" r:id="rId3"/>
     <sheet name="Vorname3 Nachname3" sheetId="4" r:id="rId4"/>
     <sheet name="Vorname4 Nachname4" sheetId="1" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Nachname</t>
   </si>
@@ -48,18 +48,12 @@
     <t>Vorname</t>
   </si>
   <si>
-    <t>Nachname2</t>
-  </si>
-  <si>
     <t>Nachname3</t>
   </si>
   <si>
     <t>Nachname4</t>
   </si>
   <si>
-    <t>Vorname2</t>
-  </si>
-  <si>
     <t>Vorname3</t>
   </si>
   <si>
@@ -190,15 +184,79 @@
   </si>
   <si>
     <t>Jenkins fixen, Sicherheitslücken schließen</t>
+  </si>
+  <si>
+    <t>Kühn</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Exceptions geschrieben für bereits existierende Filme</t>
+  </si>
+  <si>
+    <t>Query-Builder</t>
+  </si>
+  <si>
+    <t>Anfang Query-Builder mit den gewählten Entities</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Create-Dateien für DB erstellen</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read und Write-Service fertiggestellt </t>
+  </si>
+  <si>
+    <t>Bugfix</t>
+  </si>
+  <si>
+    <t>Exceptions in Service abgeändert</t>
+  </si>
+  <si>
+    <t>Fix bei Suche nach ID</t>
+  </si>
+  <si>
+    <t>Datenbank aufsetzen und Fehlersuche</t>
+  </si>
+  <si>
+    <t>Einrichten von Postman + Testen</t>
+  </si>
+  <si>
+    <t>PlantUML</t>
+  </si>
+  <si>
+    <t>Diagramme erstellen, Projekthandbuch entwerfen</t>
+  </si>
+  <si>
+    <t>Jenkins Image erstellen, Jenkinsfile bearbeiten</t>
+  </si>
+  <si>
+    <t>Job erstellen, Fehlersuche und Testen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -335,37 +393,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -649,24 +714,24 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -674,50 +739,50 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="14">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="14"/>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -730,34 +795,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="67.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="9"/>
       <c r="C2" s="11">
@@ -767,7 +832,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>15</v>
       </c>
@@ -778,13 +843,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>16</v>
       </c>
@@ -795,13 +860,13 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -812,13 +877,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>16</v>
       </c>
@@ -829,13 +894,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>17</v>
       </c>
@@ -846,13 +911,13 @@
         <v>1.5</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>17</v>
       </c>
@@ -863,13 +928,13 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>17</v>
       </c>
@@ -880,13 +945,13 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>17</v>
       </c>
@@ -897,13 +962,13 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>17</v>
       </c>
@@ -914,13 +979,13 @@
         <v>2.5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>17</v>
       </c>
@@ -931,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>17</v>
       </c>
@@ -948,13 +1013,13 @@
         <v>1.5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>17</v>
       </c>
@@ -965,13 +1030,13 @@
         <v>2.5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>18</v>
       </c>
@@ -982,13 +1047,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>18</v>
       </c>
@@ -999,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>18</v>
       </c>
@@ -1016,314 +1081,314 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="10"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="10"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="10"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="10"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="10"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="10"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="10"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="10"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="10"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="10"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="10"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="10"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="10"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="10"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="10"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="10"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="10"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="10"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="10"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="10"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="10"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="10"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="10"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="10"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="10"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="10"/>
       <c r="C61" s="5"/>
@@ -1340,460 +1405,562 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="66.5546875" customWidth="1"/>
+    <col min="5" max="5" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="9"/>
       <c r="C2" s="11">
         <f>SUM(C3:C60)</f>
-        <v>1.25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>15</v>
+      </c>
+      <c r="B3" s="17">
+        <v>45392</v>
       </c>
       <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16">
+        <v>45398</v>
+      </c>
+      <c r="C4" s="19">
         <v>0.5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B5" s="16">
+        <v>45400</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16">
+        <v>45402</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>17</v>
+      </c>
+      <c r="B7" s="16">
+        <v>45404</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16">
+        <v>45405</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>17</v>
+      </c>
+      <c r="B9" s="16">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>17</v>
+      </c>
+      <c r="B10" s="16">
+        <v>45406</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>17</v>
+      </c>
+      <c r="B11" s="16">
+        <v>45410</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>45411</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>18</v>
+      </c>
+      <c r="B13" s="16">
+        <v>45412</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>18</v>
+      </c>
+      <c r="B14" s="16">
+        <v>45413</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="10"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="10"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="10"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="10"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="10"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="10"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="10"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="10"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="10"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="10"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="10"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="10"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="10"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="10"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="10"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="10"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="10"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="10"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="10"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="10"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="10"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="10"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="10"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="10"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="10"/>
       <c r="C60" s="5"/>
@@ -1811,29 +1978,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="9"/>
       <c r="C2" s="11">
@@ -1843,424 +2010,424 @@
       <c r="D2" s="8"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7">
         <v>0.5</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7">
         <v>0.75</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="10"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="10"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="10"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="10"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="10"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="10"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="10"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="10"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="10"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="10"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="10"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="10"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="10"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="10"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="10"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="10"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="10"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="10"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="10"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="10"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="10"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="10"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="10"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="10"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="10"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="10"/>
       <c r="C60" s="5"/>
@@ -2278,30 +2445,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="65.5546875" customWidth="1"/>
+    <col min="5" max="5" width="65.5" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="9"/>
       <c r="C2" s="11">
@@ -2311,424 +2478,424 @@
       <c r="D2" s="8"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7">
         <v>0.5</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7">
         <v>0.75</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="10"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="10"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="10"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="10"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="10"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="10"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="10"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="10"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="10"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="10"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="10"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="10"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="10"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="10"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="10"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="10"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="10"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="10"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="10"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="10"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="10"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="10"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="10"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="10"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="10"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="10"/>
       <c r="C60" s="5"/>

--- a/Zeiterfassung Team 9.xlsx
+++ b/Zeiterfassung Team 9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studi\Documents\Uni\SWE\film\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A42ED9E-D975-492D-A415-4B59CE69FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DF1CD8-C223-4AC6-ACAD-E88D2D7C5DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Moritz Geiger" sheetId="2" r:id="rId2"/>
     <sheet name="Robin Kraus" sheetId="6" r:id="rId3"/>
     <sheet name="Luis Kühn" sheetId="3" r:id="rId4"/>
-    <sheet name="Vorname4 Nachname4" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>Nachname</t>
   </si>
@@ -48,12 +47,6 @@
     <t>Vorname</t>
   </si>
   <si>
-    <t>Nachname4</t>
-  </si>
-  <si>
-    <t>Vorname4</t>
-  </si>
-  <si>
     <t>Aufwand</t>
   </si>
   <si>
@@ -78,16 +71,7 @@
     <t>25.3.</t>
   </si>
   <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>Node.js</t>
-  </si>
-  <si>
     <t>Asynchrone Callbacks</t>
-  </si>
-  <si>
-    <t>Event Loop</t>
   </si>
   <si>
     <t>Gruppe</t>
@@ -774,7 +758,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +769,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="13">
         <v>9</v>
@@ -799,15 +783,15 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="14">
         <v>25</v>
@@ -815,38 +799,34 @@
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C6" s="14">
         <v>23.75</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +840,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,19 +851,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -907,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -924,10 +904,10 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -941,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -958,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -975,10 +955,10 @@
         <v>1.5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -992,10 +972,10 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1009,10 +989,10 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1026,10 +1006,10 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1043,10 +1023,10 @@
         <v>2.5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1060,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1077,10 +1057,10 @@
         <v>1.5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1094,10 +1074,10 @@
         <v>2.5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1111,10 +1091,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1128,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1145,10 +1125,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1470,7 +1450,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1480,19 +1460,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1510,16 +1490,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="19">
         <v>0.5</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1527,16 +1507,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="19">
         <v>0.75</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1548,10 +1528,10 @@
         <v>2.25</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1563,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1576,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7" s="20"/>
     </row>
@@ -1589,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1604,10 +1584,10 @@
         <v>3.25</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1619,10 +1599,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1634,10 +1614,10 @@
         <v>2.75</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1649,10 +1629,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1664,10 +1644,10 @@
         <v>0.75</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1679,10 +1659,10 @@
         <v>3.5</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1694,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2041,19 +2021,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2077,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2094,10 +2074,10 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2111,10 +2091,10 @@
         <v>1.5</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2128,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2145,10 +2125,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2162,10 +2142,10 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2179,10 +2159,10 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2196,10 +2176,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2213,10 +2193,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2230,10 +2210,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2247,10 +2227,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2264,10 +2244,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2595,472 +2575,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="65.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11">
-        <f>SUM(C3:C60)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>